--- a/account/design.1/基本設計書　ブック 3.xlsx
+++ b/account/design.1/基本設計書　ブック 3.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3AB2D3-6CD7-42BD-988A-15BCB6E39BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A59B7A7-F7BA-475F-B3ED-F21D6546DE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="145">
   <si>
     <t>ユーザー名</t>
     <rPh sb="4" eb="5">
@@ -157,13 +157,6 @@
   </si>
   <si>
     <t>IO関連図</t>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>システム名</t>
@@ -198,6 +191,9 @@
       <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント機能システム</t>
   </si>
   <si>
     <t>アカウント登録</t>
@@ -450,6 +446,16 @@
   </si>
   <si>
     <t>フッター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IO関連図</t>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -17323,8 +17329,8 @@
   </sheetPr>
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AG3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17334,7 +17340,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="37.5" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -17413,14 +17419,16 @@
       <c r="AG2" s="108"/>
     </row>
     <row r="3" spans="1:33" ht="17.25" customHeight="1">
-      <c r="A3" s="103"/>
+      <c r="A3" s="103" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
       <c r="G3" s="103" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H3" s="104"/>
       <c r="I3" s="104"/>
@@ -17445,11 +17453,11 @@
       <c r="AB3" s="104"/>
       <c r="AC3" s="105"/>
       <c r="AD3" s="103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="105"/>
       <c r="AF3" s="103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="105"/>
     </row>
@@ -17636,7 +17644,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -17645,7 +17653,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="8"/>
@@ -17927,7 +17935,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" s="58"/>
       <c r="P17" s="8"/>
@@ -18266,7 +18274,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -18452,7 +18460,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="31.5" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -18538,7 +18546,7 @@
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
       <c r="G3" s="103" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H3" s="104"/>
       <c r="I3" s="104"/>
@@ -18563,17 +18571,17 @@
       <c r="AB3" s="104"/>
       <c r="AC3" s="105"/>
       <c r="AD3" s="103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="105"/>
       <c r="AF3" s="103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="105"/>
     </row>
     <row r="4" spans="1:33" ht="25.5">
       <c r="I4" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" s="38"/>
       <c r="K4" s="38"/>
@@ -18616,7 +18624,7 @@
     <row r="6" spans="1:33">
       <c r="I6" s="39"/>
       <c r="J6" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="88"/>
       <c r="L6" s="88"/>
@@ -18659,7 +18667,7 @@
       <c r="I8" s="39"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39"/>
@@ -18686,7 +18694,7 @@
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="114" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="115"/>
       <c r="R9" s="115"/>
@@ -18723,7 +18731,7 @@
       <c r="I11" s="39"/>
       <c r="J11" s="40"/>
       <c r="K11" s="151" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L11" s="152"/>
       <c r="M11" s="120"/>
@@ -18733,7 +18741,7 @@
       <c r="Q11" s="132"/>
       <c r="R11" s="133"/>
       <c r="S11" s="143" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="T11" s="144"/>
       <c r="U11" s="116"/>
@@ -18767,7 +18775,7 @@
       <c r="I13" s="39"/>
       <c r="J13" s="40"/>
       <c r="K13" s="155" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L13" s="156"/>
       <c r="M13" s="137"/>
@@ -18777,7 +18785,7 @@
       <c r="Q13" s="121"/>
       <c r="R13" s="138"/>
       <c r="S13" s="143" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="T13" s="144"/>
       <c r="U13" s="117"/>
@@ -18812,7 +18820,7 @@
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
       <c r="K15" s="153" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L15" s="154"/>
       <c r="M15" s="120"/>
@@ -18822,11 +18830,11 @@
       <c r="Q15" s="121"/>
       <c r="R15" s="122"/>
       <c r="S15" s="147" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="T15" s="148"/>
       <c r="U15" s="120" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="V15" s="121"/>
       <c r="W15" s="121"/>
@@ -18858,11 +18866,11 @@
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
       <c r="K17" s="157" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L17" s="156"/>
       <c r="M17" s="140" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="N17" s="132"/>
       <c r="O17" s="132"/>
@@ -18874,7 +18882,7 @@
       <c r="U17" s="39"/>
       <c r="V17" s="39"/>
       <c r="W17" s="126" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="X17" s="127"/>
       <c r="Y17" s="128"/>
@@ -18944,42 +18952,42 @@
       <c r="I21" s="39"/>
       <c r="J21" s="40"/>
       <c r="K21" s="62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L21" s="62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21" s="62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N21" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O21" s="62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P21" s="109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="110"/>
       <c r="R21" s="62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S21" s="111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21" s="111"/>
       <c r="U21" s="62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="V21" s="62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W21" s="62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="X21" s="111" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Y21" s="111"/>
       <c r="Z21" s="44"/>
@@ -19047,7 +19055,7 @@
     <row r="25" spans="9:26">
       <c r="I25" s="39"/>
       <c r="J25" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" s="88"/>
       <c r="L25" s="88"/>
@@ -19131,8 +19139,8 @@
   </sheetPr>
   <dimension ref="A1:AG34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15:V16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -19228,14 +19236,16 @@
       <c r="AG2" s="86"/>
     </row>
     <row r="3" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A3" s="80"/>
+      <c r="A3" s="80" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="81"/>
       <c r="C3" s="81"/>
       <c r="D3" s="81"/>
       <c r="E3" s="81"/>
       <c r="F3" s="82"/>
       <c r="G3" s="80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
@@ -19260,11 +19270,11 @@
       <c r="AB3" s="81"/>
       <c r="AC3" s="82"/>
       <c r="AD3" s="80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="82"/>
       <c r="AF3" s="80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="82"/>
     </row>
@@ -19451,7 +19461,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -19460,7 +19470,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="8"/>
@@ -19742,7 +19752,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" s="58"/>
       <c r="P17" s="8"/>
@@ -20221,7 +20231,7 @@
     </row>
     <row r="31" spans="1:33">
       <c r="A31" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -20401,7 +20411,7 @@
   <sheetData>
     <row r="1" spans="1:38" ht="30.75" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -20487,7 +20497,7 @@
       <c r="E3" s="81"/>
       <c r="F3" s="82"/>
       <c r="G3" s="80" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="81"/>
       <c r="I3" s="81"/>
@@ -20512,17 +20522,17 @@
       <c r="AB3" s="81"/>
       <c r="AC3" s="82"/>
       <c r="AD3" s="80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="82"/>
       <c r="AF3" s="80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="82"/>
     </row>
     <row r="4" spans="1:38" ht="25.5">
       <c r="A4" s="55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38"/>
@@ -20536,7 +20546,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
       <c r="N4" s="55" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O4" s="38"/>
       <c r="P4" s="38"/>
@@ -20550,7 +20560,7 @@
       <c r="X4" s="38"/>
       <c r="Y4" s="38"/>
       <c r="AA4" s="55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
@@ -20605,7 +20615,7 @@
     <row r="6" spans="1:38">
       <c r="A6" s="39"/>
       <c r="B6" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="88"/>
       <c r="D6" s="88"/>
@@ -20619,7 +20629,7 @@
       <c r="L6" s="89"/>
       <c r="N6" s="39"/>
       <c r="O6" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P6" s="88"/>
       <c r="Q6" s="88"/>
@@ -20633,7 +20643,7 @@
       <c r="Y6" s="89"/>
       <c r="AA6" s="39"/>
       <c r="AB6" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC6" s="88"/>
       <c r="AD6" s="88"/>
@@ -20804,11 +20814,11 @@
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="39"/>
       <c r="G11" s="45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H11" s="46"/>
       <c r="I11" s="47"/>
@@ -20820,11 +20830,11 @@
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
       <c r="R11" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S11" s="39"/>
       <c r="T11" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U11" s="39"/>
       <c r="V11" s="39"/>
@@ -20888,11 +20898,11 @@
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H13" s="46"/>
       <c r="I13" s="47"/>
@@ -20904,11 +20914,11 @@
       <c r="P13" s="39"/>
       <c r="Q13" s="39"/>
       <c r="R13" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="39"/>
       <c r="T13" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
@@ -20972,11 +20982,11 @@
       <c r="C15" s="39"/>
       <c r="D15" s="39"/>
       <c r="E15" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15" s="46"/>
       <c r="I15" s="47"/>
@@ -20988,11 +20998,11 @@
       <c r="P15" s="39"/>
       <c r="Q15" s="39"/>
       <c r="R15" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S15" s="39"/>
       <c r="T15" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U15" s="39"/>
       <c r="V15" s="39"/>
@@ -21056,11 +21066,11 @@
       <c r="C17" s="39"/>
       <c r="D17" s="39"/>
       <c r="E17" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H17" s="46"/>
       <c r="I17" s="47"/>
@@ -21072,11 +21082,11 @@
       <c r="P17" s="39"/>
       <c r="Q17" s="39"/>
       <c r="R17" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S17" s="39"/>
       <c r="T17" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="U17" s="39"/>
       <c r="V17" s="39"/>
@@ -21140,11 +21150,11 @@
       <c r="C19" s="39"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="46"/>
       <c r="I19" s="47"/>
@@ -21156,11 +21166,11 @@
       <c r="P19" s="39"/>
       <c r="Q19" s="39"/>
       <c r="R19" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="S19" s="39"/>
       <c r="T19" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U19" s="39"/>
       <c r="V19" s="39"/>
@@ -21171,7 +21181,7 @@
       <c r="AB19" s="40"/>
       <c r="AC19" s="39"/>
       <c r="AD19" s="93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AE19" s="93"/>
       <c r="AF19" s="93"/>
@@ -21226,11 +21236,11 @@
       <c r="C21" s="39"/>
       <c r="D21" s="39"/>
       <c r="E21" s="39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" s="39"/>
       <c r="G21" s="45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H21" s="46"/>
       <c r="I21" s="47"/>
@@ -21242,11 +21252,11 @@
       <c r="P21" s="39"/>
       <c r="Q21" s="39"/>
       <c r="R21" s="39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S21" s="39"/>
       <c r="T21" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="U21" s="39"/>
       <c r="V21" s="39"/>
@@ -21310,14 +21320,14 @@
       <c r="C23" s="39"/>
       <c r="D23" s="39"/>
       <c r="E23" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="39"/>
@@ -21328,11 +21338,11 @@
       <c r="P23" s="39"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S23" s="39"/>
       <c r="T23" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U23" s="39"/>
       <c r="V23" s="39"/>
@@ -21396,7 +21406,7 @@
       <c r="C25" s="39"/>
       <c r="D25" s="39"/>
       <c r="E25" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="39"/>
       <c r="G25" s="48">
@@ -21412,7 +21422,7 @@
       <c r="P25" s="39"/>
       <c r="Q25" s="39"/>
       <c r="R25" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S25" s="39"/>
       <c r="T25" s="53">
@@ -21480,11 +21490,11 @@
       <c r="C27" s="39"/>
       <c r="D27" s="39"/>
       <c r="E27" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" s="39"/>
       <c r="G27" s="49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" s="39"/>
       <c r="I27" s="39"/>
@@ -21496,11 +21506,11 @@
       <c r="P27" s="39"/>
       <c r="Q27" s="39"/>
       <c r="R27" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S27" s="39"/>
       <c r="T27" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="U27" s="39"/>
       <c r="V27" s="39"/>
@@ -21564,11 +21574,11 @@
       <c r="C29" s="39"/>
       <c r="D29" s="39"/>
       <c r="E29" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="39"/>
       <c r="G29" s="45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H29" s="46"/>
       <c r="I29" s="47"/>
@@ -21580,11 +21590,11 @@
       <c r="P29" s="39"/>
       <c r="Q29" s="39"/>
       <c r="R29" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S29" s="39"/>
       <c r="T29" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U29" s="39"/>
       <c r="V29" s="39"/>
@@ -21648,11 +21658,11 @@
       <c r="C31" s="39"/>
       <c r="D31" s="39"/>
       <c r="E31" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F31" s="39"/>
       <c r="G31" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="47"/>
@@ -21664,11 +21674,11 @@
       <c r="P31" s="39"/>
       <c r="Q31" s="39"/>
       <c r="R31" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S31" s="39"/>
       <c r="T31" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U31" s="39"/>
       <c r="V31" s="39"/>
@@ -21732,11 +21742,11 @@
       <c r="C33" s="39"/>
       <c r="D33" s="39"/>
       <c r="E33" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="39"/>
       <c r="G33" s="49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H33" s="39"/>
       <c r="I33" s="39"/>
@@ -21748,11 +21758,11 @@
       <c r="P33" s="39"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S33" s="39"/>
       <c r="T33" s="53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U33" s="39"/>
       <c r="V33" s="39"/>
@@ -21803,7 +21813,7 @@
       <c r="AD34" s="39"/>
       <c r="AE34" s="39"/>
       <c r="AF34" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AG34" s="88"/>
       <c r="AH34" s="89"/>
@@ -21857,7 +21867,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="39"/>
       <c r="F36" s="87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G36" s="88"/>
       <c r="H36" s="89"/>
@@ -21869,13 +21879,13 @@
       <c r="O36" s="40"/>
       <c r="P36" s="39"/>
       <c r="Q36" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R36" s="88"/>
       <c r="S36" s="89"/>
       <c r="T36" s="39"/>
       <c r="U36" s="87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="V36" s="88"/>
       <c r="W36" s="89"/>
@@ -21921,7 +21931,7 @@
       <c r="Y37" s="44"/>
       <c r="AA37" s="39"/>
       <c r="AB37" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC37" s="88"/>
       <c r="AD37" s="88"/>
@@ -21975,7 +21985,7 @@
     <row r="39" spans="1:38">
       <c r="A39" s="39"/>
       <c r="B39" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C39" s="88"/>
       <c r="D39" s="88"/>
@@ -21989,7 +21999,7 @@
       <c r="L39" s="89"/>
       <c r="N39" s="39"/>
       <c r="O39" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P39" s="88"/>
       <c r="Q39" s="88"/>
@@ -22063,7 +22073,7 @@
   <dimension ref="A1:AG30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AG26"/>
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22073,7 +22083,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="37.5" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -22152,14 +22162,16 @@
       <c r="AG2" s="86"/>
     </row>
     <row r="3" spans="1:33" ht="14.25" customHeight="1">
-      <c r="A3" s="100"/>
+      <c r="A3" s="100" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
       <c r="F3" s="102"/>
       <c r="G3" s="100" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" s="101"/>
       <c r="I3" s="101"/>
@@ -22184,11 +22196,11 @@
       <c r="AB3" s="101"/>
       <c r="AC3" s="102"/>
       <c r="AD3" s="100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="102"/>
       <c r="AF3" s="100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="102"/>
     </row>
@@ -22999,7 +23011,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -23164,7 +23176,7 @@
   </sheetPr>
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
@@ -23175,7 +23187,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="35.25" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -23261,7 +23273,7 @@
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
       <c r="G3" s="103" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" s="104"/>
       <c r="I3" s="104"/>
@@ -23286,17 +23298,17 @@
       <c r="AB3" s="104"/>
       <c r="AC3" s="105"/>
       <c r="AD3" s="103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="105"/>
       <c r="AF3" s="103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="105"/>
     </row>
     <row r="5" spans="1:33" ht="25.5">
       <c r="H5" s="37" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38"/>
@@ -23339,7 +23351,7 @@
     <row r="7" spans="1:33">
       <c r="H7" s="39"/>
       <c r="I7" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J7" s="88"/>
       <c r="K7" s="88"/>
@@ -23382,7 +23394,7 @@
       <c r="H9" s="39"/>
       <c r="I9" s="40"/>
       <c r="J9" s="41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
@@ -23464,42 +23476,42 @@
       <c r="H13" s="39"/>
       <c r="I13" s="40"/>
       <c r="J13" s="62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K13" s="62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M13" s="62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13" s="62" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O13" s="109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P13" s="110"/>
       <c r="Q13" s="62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R13" s="111" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S13" s="111"/>
       <c r="T13" s="62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U13" s="62" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V13" s="62" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="W13" s="111" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="X13" s="111"/>
       <c r="Y13" s="44"/>
@@ -23511,30 +23523,30 @@
         <v>20</v>
       </c>
       <c r="K14" s="64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L14" s="64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M14" s="64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N14" s="64" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O14" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P14" s="66"/>
       <c r="Q14" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R14" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S14" s="110"/>
       <c r="T14" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U14" s="67">
         <v>43831</v>
@@ -23543,10 +23555,10 @@
         <v>43831</v>
       </c>
       <c r="W14" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X14" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y14" s="44"/>
     </row>
@@ -23557,30 +23569,30 @@
         <v>19</v>
       </c>
       <c r="K15" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L15" s="64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M15" s="64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N15" s="64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O15" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P15" s="66"/>
       <c r="Q15" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R15" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S15" s="110"/>
       <c r="T15" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U15" s="67">
         <v>43831</v>
@@ -23589,10 +23601,10 @@
         <v>43831</v>
       </c>
       <c r="W15" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X15" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y15" s="44"/>
     </row>
@@ -23603,30 +23615,30 @@
         <v>18</v>
       </c>
       <c r="K16" s="64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" s="64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M16" s="64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N16" s="64" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O16" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P16" s="66"/>
       <c r="Q16" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R16" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S16" s="110"/>
       <c r="T16" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U16" s="67">
         <v>43831</v>
@@ -23635,10 +23647,10 @@
         <v>43831</v>
       </c>
       <c r="W16" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X16" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y16" s="44"/>
     </row>
@@ -23649,30 +23661,30 @@
         <v>17</v>
       </c>
       <c r="K17" s="64" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L17" s="64" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M17" s="64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N17" s="64" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O17" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P17" s="66"/>
       <c r="Q17" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R17" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S17" s="110"/>
       <c r="T17" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U17" s="67">
         <v>43831</v>
@@ -23681,10 +23693,10 @@
         <v>43831</v>
       </c>
       <c r="W17" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X17" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y17" s="44"/>
     </row>
@@ -23695,30 +23707,30 @@
         <v>16</v>
       </c>
       <c r="K18" s="64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L18" s="64" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M18" s="64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N18" s="64" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O18" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P18" s="66"/>
       <c r="Q18" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R18" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S18" s="110"/>
       <c r="T18" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U18" s="67">
         <v>43831</v>
@@ -23727,10 +23739,10 @@
         <v>43831</v>
       </c>
       <c r="W18" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X18" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y18" s="44"/>
     </row>
@@ -23741,30 +23753,30 @@
         <v>15</v>
       </c>
       <c r="K19" s="64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L19" s="64" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M19" s="64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N19" s="64" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O19" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" s="66"/>
       <c r="Q19" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R19" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S19" s="110"/>
       <c r="T19" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U19" s="67">
         <v>43831</v>
@@ -23773,10 +23785,10 @@
         <v>43831</v>
       </c>
       <c r="W19" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X19" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y19" s="44"/>
     </row>
@@ -23787,30 +23799,30 @@
         <v>14</v>
       </c>
       <c r="K20" s="64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L20" s="64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M20" s="64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N20" s="64" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O20" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P20" s="66"/>
       <c r="Q20" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R20" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S20" s="110"/>
       <c r="T20" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U20" s="67">
         <v>43831</v>
@@ -23819,10 +23831,10 @@
         <v>43831</v>
       </c>
       <c r="W20" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X20" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y20" s="44"/>
     </row>
@@ -23833,30 +23845,30 @@
         <v>13</v>
       </c>
       <c r="K21" s="64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L21" s="64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M21" s="64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N21" s="64" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O21" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P21" s="66"/>
       <c r="Q21" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R21" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S21" s="110"/>
       <c r="T21" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U21" s="67">
         <v>43831</v>
@@ -23865,10 +23877,10 @@
         <v>43831</v>
       </c>
       <c r="W21" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X21" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y21" s="44"/>
     </row>
@@ -23879,30 +23891,30 @@
         <v>12</v>
       </c>
       <c r="K22" s="64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L22" s="64" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M22" s="64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N22" s="64" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O22" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P22" s="66"/>
       <c r="Q22" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R22" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S22" s="110"/>
       <c r="T22" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U22" s="67">
         <v>43831</v>
@@ -23911,10 +23923,10 @@
         <v>43831</v>
       </c>
       <c r="W22" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X22" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y22" s="44"/>
     </row>
@@ -23925,30 +23937,30 @@
         <v>11</v>
       </c>
       <c r="K23" s="64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L23" s="64" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M23" s="64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N23" s="64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O23" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P23" s="66"/>
       <c r="Q23" s="62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R23" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S23" s="110"/>
       <c r="T23" s="62" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U23" s="67">
         <v>43831</v>
@@ -23957,10 +23969,10 @@
         <v>43831</v>
       </c>
       <c r="W23" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X23" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y23" s="44"/>
     </row>
@@ -23971,30 +23983,30 @@
         <v>10</v>
       </c>
       <c r="K24" s="64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L24" s="64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M24" s="64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="N24" s="64" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O24" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P24" s="66"/>
       <c r="Q24" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R24" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S24" s="110"/>
       <c r="T24" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U24" s="67">
         <v>43831</v>
@@ -24003,10 +24015,10 @@
         <v>43831</v>
       </c>
       <c r="W24" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X24" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y24" s="44"/>
     </row>
@@ -24017,30 +24029,30 @@
         <v>9</v>
       </c>
       <c r="K25" s="64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L25" s="64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M25" s="64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N25" s="64" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O25" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P25" s="66"/>
       <c r="Q25" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R25" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S25" s="110"/>
       <c r="T25" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U25" s="67">
         <v>43831</v>
@@ -24049,10 +24061,10 @@
         <v>43831</v>
       </c>
       <c r="W25" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X25" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y25" s="44"/>
     </row>
@@ -24063,30 +24075,30 @@
         <v>8</v>
       </c>
       <c r="K26" s="64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L26" s="64" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M26" s="64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="N26" s="64" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O26" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P26" s="66"/>
       <c r="Q26" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R26" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S26" s="110"/>
       <c r="T26" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U26" s="67">
         <v>43831</v>
@@ -24095,10 +24107,10 @@
         <v>43831</v>
       </c>
       <c r="W26" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X26" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y26" s="44"/>
     </row>
@@ -24109,30 +24121,30 @@
         <v>7</v>
       </c>
       <c r="K27" s="64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L27" s="64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M27" s="64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N27" s="64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O27" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P27" s="66"/>
       <c r="Q27" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R27" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S27" s="110"/>
       <c r="T27" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U27" s="67">
         <v>43831</v>
@@ -24141,10 +24153,10 @@
         <v>43831</v>
       </c>
       <c r="W27" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X27" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y27" s="44"/>
     </row>
@@ -24155,30 +24167,30 @@
         <v>6</v>
       </c>
       <c r="K28" s="64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L28" s="64" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M28" s="64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N28" s="64" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="O28" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P28" s="66"/>
       <c r="Q28" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R28" s="109" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="S28" s="110"/>
       <c r="T28" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U28" s="67">
         <v>43831</v>
@@ -24187,10 +24199,10 @@
         <v>43831</v>
       </c>
       <c r="W28" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X28" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y28" s="44"/>
     </row>
@@ -24201,30 +24213,30 @@
         <v>5</v>
       </c>
       <c r="K29" s="64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L29" s="64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M29" s="64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N29" s="64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O29" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P29" s="66"/>
       <c r="Q29" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R29" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S29" s="110"/>
       <c r="T29" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U29" s="67">
         <v>43831</v>
@@ -24233,10 +24245,10 @@
         <v>43831</v>
       </c>
       <c r="W29" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X29" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y29" s="44"/>
     </row>
@@ -24247,30 +24259,30 @@
         <v>4</v>
       </c>
       <c r="K30" s="64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L30" s="64" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M30" s="64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="N30" s="64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O30" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P30" s="66"/>
       <c r="Q30" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R30" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S30" s="110"/>
       <c r="T30" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U30" s="67">
         <v>43831</v>
@@ -24279,10 +24291,10 @@
         <v>43831</v>
       </c>
       <c r="W30" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X30" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y30" s="44"/>
     </row>
@@ -24293,30 +24305,30 @@
         <v>3</v>
       </c>
       <c r="K31" s="64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L31" s="64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M31" s="64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="N31" s="64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="O31" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P31" s="66"/>
       <c r="Q31" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R31" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S31" s="110"/>
       <c r="T31" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U31" s="67">
         <v>43831</v>
@@ -24325,10 +24337,10 @@
         <v>43831</v>
       </c>
       <c r="W31" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X31" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y31" s="44"/>
     </row>
@@ -24339,30 +24351,30 @@
         <v>2</v>
       </c>
       <c r="K32" s="64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L32" s="64" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M32" s="64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N32" s="64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="O32" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P32" s="66"/>
       <c r="Q32" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R32" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S32" s="110"/>
       <c r="T32" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U32" s="67">
         <v>43831</v>
@@ -24371,10 +24383,10 @@
         <v>43831</v>
       </c>
       <c r="W32" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X32" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y32" s="44"/>
     </row>
@@ -24385,30 +24397,30 @@
         <v>1</v>
       </c>
       <c r="K33" s="64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L33" s="64" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M33" s="64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="N33" s="64" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O33" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P33" s="66"/>
       <c r="Q33" s="62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R33" s="109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="S33" s="110"/>
       <c r="T33" s="62" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="U33" s="67">
         <v>43831</v>
@@ -24417,10 +24429,10 @@
         <v>43831</v>
       </c>
       <c r="W33" s="62" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="X33" s="62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y33" s="44"/>
     </row>
@@ -24507,7 +24519,7 @@
     <row r="38" spans="8:25">
       <c r="H38" s="39"/>
       <c r="I38" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J38" s="88"/>
       <c r="K38" s="88"/>
@@ -24594,7 +24606,9 @@
   </sheetPr>
   <dimension ref="A1:AG30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -24603,7 +24617,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="36" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -24682,14 +24696,16 @@
       <c r="AG2" s="86"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="100"/>
+      <c r="A3" s="100" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="101"/>
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
       <c r="F3" s="102"/>
       <c r="G3" s="100" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H3" s="101"/>
       <c r="I3" s="101"/>
@@ -24714,11 +24730,11 @@
       <c r="AB3" s="101"/>
       <c r="AC3" s="102"/>
       <c r="AD3" s="100" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="102"/>
       <c r="AF3" s="100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="102"/>
     </row>
@@ -25529,7 +25545,7 @@
     </row>
     <row r="27" spans="1:33">
       <c r="A27" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -25709,7 +25725,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="39" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -25795,7 +25811,7 @@
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
       <c r="G3" s="103" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H3" s="104"/>
       <c r="I3" s="104"/>
@@ -25820,17 +25836,17 @@
       <c r="AB3" s="104"/>
       <c r="AC3" s="105"/>
       <c r="AD3" s="103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="105"/>
       <c r="AF3" s="103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="105"/>
     </row>
     <row r="5" spans="1:37" ht="25.5">
       <c r="A5" s="55" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="38"/>
@@ -25844,7 +25860,7 @@
       <c r="K5" s="38"/>
       <c r="L5" s="38"/>
       <c r="N5" s="55" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O5" s="38"/>
       <c r="P5" s="38"/>
@@ -25858,7 +25874,7 @@
       <c r="X5" s="38"/>
       <c r="Y5" s="38"/>
       <c r="Z5" s="55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA5" s="38"/>
       <c r="AB5" s="38"/>
@@ -25913,7 +25929,7 @@
     <row r="7" spans="1:37">
       <c r="A7" s="39"/>
       <c r="B7" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="88"/>
       <c r="D7" s="88"/>
@@ -25927,7 +25943,7 @@
       <c r="L7" s="89"/>
       <c r="N7" s="39"/>
       <c r="O7" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P7" s="88"/>
       <c r="Q7" s="88"/>
@@ -25941,7 +25957,7 @@
       <c r="Y7" s="89"/>
       <c r="Z7" s="39"/>
       <c r="AA7" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AB7" s="88"/>
       <c r="AC7" s="88"/>
@@ -26112,11 +26128,11 @@
       <c r="C12" s="39"/>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H12" s="39"/>
       <c r="I12" s="39"/>
@@ -26192,11 +26208,11 @@
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
       <c r="E14" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14" s="39"/>
       <c r="I14" s="39"/>
@@ -26272,11 +26288,11 @@
       <c r="C16" s="39"/>
       <c r="D16" s="39"/>
       <c r="E16" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" s="39"/>
       <c r="G16" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H16" s="39"/>
       <c r="I16" s="39"/>
@@ -26352,11 +26368,11 @@
       <c r="C18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F18" s="39"/>
       <c r="G18" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H18" s="39"/>
       <c r="I18" s="39"/>
@@ -26432,11 +26448,11 @@
       <c r="C20" s="39"/>
       <c r="D20" s="39"/>
       <c r="E20" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="39"/>
       <c r="G20" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H20" s="39"/>
       <c r="I20" s="39"/>
@@ -26446,7 +26462,7 @@
       <c r="N20" s="39"/>
       <c r="O20" s="40"/>
       <c r="P20" s="69" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="68"/>
       <c r="R20" s="68"/>
@@ -26461,7 +26477,7 @@
       <c r="AA20" s="40"/>
       <c r="AB20" s="39"/>
       <c r="AC20" s="93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AD20" s="93"/>
       <c r="AE20" s="93"/>
@@ -26516,11 +26532,11 @@
       <c r="C22" s="39"/>
       <c r="D22" s="39"/>
       <c r="E22" s="39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" s="39"/>
       <c r="G22" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H22" s="39"/>
       <c r="I22" s="39"/>
@@ -26596,11 +26612,11 @@
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" s="39"/>
       <c r="G24" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" s="39"/>
       <c r="I24" s="39"/>
@@ -26676,7 +26692,7 @@
       <c r="C26" s="39"/>
       <c r="D26" s="39"/>
       <c r="E26" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F26" s="39"/>
       <c r="G26" s="53">
@@ -26756,11 +26772,11 @@
       <c r="C28" s="39"/>
       <c r="D28" s="39"/>
       <c r="E28" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="39"/>
       <c r="I28" s="39"/>
@@ -26836,11 +26852,11 @@
       <c r="C30" s="39"/>
       <c r="D30" s="39"/>
       <c r="E30" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F30" s="39"/>
       <c r="G30" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H30" s="39"/>
       <c r="I30" s="39"/>
@@ -26916,11 +26932,11 @@
       <c r="C32" s="39"/>
       <c r="D32" s="39"/>
       <c r="E32" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F32" s="39"/>
       <c r="G32" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H32" s="39"/>
       <c r="I32" s="39"/>
@@ -26996,11 +27012,11 @@
       <c r="C34" s="39"/>
       <c r="D34" s="39"/>
       <c r="E34" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F34" s="39"/>
       <c r="G34" s="53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H34" s="39"/>
       <c r="I34" s="39"/>
@@ -27049,13 +27065,13 @@
       <c r="O35" s="40"/>
       <c r="P35" s="39"/>
       <c r="Q35" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R35" s="88"/>
       <c r="S35" s="89"/>
       <c r="T35" s="39"/>
       <c r="U35" s="87" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V35" s="88"/>
       <c r="W35" s="89"/>
@@ -27067,7 +27083,7 @@
       <c r="AC35" s="39"/>
       <c r="AD35" s="39"/>
       <c r="AE35" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF35" s="88"/>
       <c r="AG35" s="89"/>
@@ -27120,7 +27136,7 @@
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
       <c r="E37" s="112" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F37" s="112"/>
       <c r="G37" s="112"/>
@@ -27169,7 +27185,7 @@
       <c r="L38" s="44"/>
       <c r="N38" s="39"/>
       <c r="O38" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P38" s="88"/>
       <c r="Q38" s="88"/>
@@ -27183,7 +27199,7 @@
       <c r="Y38" s="89"/>
       <c r="Z38" s="39"/>
       <c r="AA38" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB38" s="88"/>
       <c r="AC38" s="88"/>
@@ -27237,7 +27253,7 @@
     <row r="40" spans="1:37">
       <c r="A40" s="39"/>
       <c r="B40" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="88"/>
       <c r="D40" s="88"/>
@@ -27266,7 +27282,7 @@
     </row>
     <row r="44" spans="1:37" ht="25.5">
       <c r="A44" s="55" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B44" s="38"/>
       <c r="C44" s="38"/>
@@ -27280,7 +27296,7 @@
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="55" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="N44" s="38"/>
       <c r="O44" s="38"/>
@@ -27294,7 +27310,7 @@
       <c r="W44" s="38"/>
       <c r="X44" s="38"/>
       <c r="Y44" s="55" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Z44" s="38"/>
       <c r="AA44" s="38"/>
@@ -27349,7 +27365,7 @@
     <row r="46" spans="1:37">
       <c r="A46" s="39"/>
       <c r="B46" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
@@ -27363,7 +27379,7 @@
       <c r="L46" s="89"/>
       <c r="M46" s="39"/>
       <c r="N46" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="O46" s="88"/>
       <c r="P46" s="88"/>
@@ -27377,7 +27393,7 @@
       <c r="X46" s="89"/>
       <c r="Y46" s="39"/>
       <c r="Z46" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA46" s="88"/>
       <c r="AB46" s="88"/>
@@ -27548,11 +27564,11 @@
       <c r="C51" s="39"/>
       <c r="D51" s="39"/>
       <c r="E51" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" s="39"/>
       <c r="G51" s="45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H51" s="46"/>
       <c r="I51" s="47"/>
@@ -27564,11 +27580,11 @@
       <c r="O51" s="39"/>
       <c r="P51" s="39"/>
       <c r="Q51" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R51" s="39"/>
       <c r="S51" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T51" s="39"/>
       <c r="U51" s="39"/>
@@ -27632,11 +27648,11 @@
       <c r="C53" s="39"/>
       <c r="D53" s="39"/>
       <c r="E53" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F53" s="39"/>
       <c r="G53" s="45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H53" s="46"/>
       <c r="I53" s="47"/>
@@ -27648,11 +27664,11 @@
       <c r="O53" s="39"/>
       <c r="P53" s="39"/>
       <c r="Q53" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R53" s="39"/>
       <c r="S53" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="T53" s="39"/>
       <c r="U53" s="39"/>
@@ -27716,11 +27732,11 @@
       <c r="C55" s="39"/>
       <c r="D55" s="39"/>
       <c r="E55" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="39"/>
       <c r="G55" s="45" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H55" s="46"/>
       <c r="I55" s="47"/>
@@ -27732,11 +27748,11 @@
       <c r="O55" s="39"/>
       <c r="P55" s="39"/>
       <c r="Q55" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R55" s="39"/>
       <c r="S55" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T55" s="39"/>
       <c r="U55" s="39"/>
@@ -27800,11 +27816,11 @@
       <c r="C57" s="39"/>
       <c r="D57" s="39"/>
       <c r="E57" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F57" s="39"/>
       <c r="G57" s="45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H57" s="46"/>
       <c r="I57" s="47"/>
@@ -27816,11 +27832,11 @@
       <c r="O57" s="39"/>
       <c r="P57" s="39"/>
       <c r="Q57" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R57" s="39"/>
       <c r="S57" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T57" s="39"/>
       <c r="U57" s="39"/>
@@ -27884,11 +27900,11 @@
       <c r="C59" s="39"/>
       <c r="D59" s="39"/>
       <c r="E59" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" s="39"/>
       <c r="G59" s="45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H59" s="46"/>
       <c r="I59" s="47"/>
@@ -27900,11 +27916,11 @@
       <c r="O59" s="39"/>
       <c r="P59" s="39"/>
       <c r="Q59" s="39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R59" s="39"/>
       <c r="S59" s="39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T59" s="39"/>
       <c r="U59" s="39"/>
@@ -27915,7 +27931,7 @@
       <c r="Z59" s="40"/>
       <c r="AA59" s="39"/>
       <c r="AB59" s="93" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="AC59" s="93"/>
       <c r="AD59" s="93"/>
@@ -27970,11 +27986,11 @@
       <c r="C61" s="39"/>
       <c r="D61" s="39"/>
       <c r="E61" s="39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F61" s="39"/>
       <c r="G61" s="45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H61" s="46"/>
       <c r="I61" s="47"/>
@@ -27986,11 +28002,11 @@
       <c r="O61" s="39"/>
       <c r="P61" s="39"/>
       <c r="Q61" s="39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R61" s="39"/>
       <c r="S61" s="39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T61" s="39"/>
       <c r="U61" s="39"/>
@@ -28054,14 +28070,14 @@
       <c r="C63" s="39"/>
       <c r="D63" s="39"/>
       <c r="E63" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" s="39"/>
       <c r="G63" s="39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" s="39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" s="39"/>
       <c r="J63" s="39"/>
@@ -28072,11 +28088,11 @@
       <c r="O63" s="39"/>
       <c r="P63" s="39"/>
       <c r="Q63" s="39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R63" s="39"/>
       <c r="S63" s="39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T63" s="39"/>
       <c r="U63" s="39"/>
@@ -28140,7 +28156,7 @@
       <c r="C65" s="39"/>
       <c r="D65" s="39"/>
       <c r="E65" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F65" s="39"/>
       <c r="G65" s="48">
@@ -28156,7 +28172,7 @@
       <c r="O65" s="39"/>
       <c r="P65" s="39"/>
       <c r="Q65" s="39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R65" s="39"/>
       <c r="S65" s="53">
@@ -28224,11 +28240,11 @@
       <c r="C67" s="39"/>
       <c r="D67" s="39"/>
       <c r="E67" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" s="39"/>
       <c r="G67" s="49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="39"/>
@@ -28240,11 +28256,11 @@
       <c r="O67" s="39"/>
       <c r="P67" s="39"/>
       <c r="Q67" s="39" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R67" s="39"/>
       <c r="S67" s="53" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T67" s="39"/>
       <c r="U67" s="39"/>
@@ -28308,11 +28324,11 @@
       <c r="C69" s="39"/>
       <c r="D69" s="39"/>
       <c r="E69" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F69" s="39"/>
       <c r="G69" s="45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H69" s="46"/>
       <c r="I69" s="47"/>
@@ -28324,11 +28340,11 @@
       <c r="O69" s="39"/>
       <c r="P69" s="39"/>
       <c r="Q69" s="39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R69" s="39"/>
       <c r="S69" s="39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T69" s="39"/>
       <c r="U69" s="39"/>
@@ -28392,11 +28408,11 @@
       <c r="C71" s="39"/>
       <c r="D71" s="39"/>
       <c r="E71" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F71" s="39"/>
       <c r="G71" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H71" s="46"/>
       <c r="I71" s="47"/>
@@ -28408,11 +28424,11 @@
       <c r="O71" s="39"/>
       <c r="P71" s="39"/>
       <c r="Q71" s="39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R71" s="39"/>
       <c r="S71" s="39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T71" s="39"/>
       <c r="U71" s="39"/>
@@ -28476,11 +28492,11 @@
       <c r="C73" s="39"/>
       <c r="D73" s="39"/>
       <c r="E73" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="39"/>
       <c r="G73" s="49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H73" s="39"/>
       <c r="I73" s="39"/>
@@ -28492,11 +28508,11 @@
       <c r="O73" s="39"/>
       <c r="P73" s="39"/>
       <c r="Q73" s="39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R73" s="39"/>
       <c r="S73" s="53" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T73" s="39"/>
       <c r="U73" s="39"/>
@@ -28547,7 +28563,7 @@
       <c r="AB74" s="39"/>
       <c r="AC74" s="39"/>
       <c r="AD74" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE74" s="88"/>
       <c r="AF74" s="89"/>
@@ -28601,7 +28617,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
       <c r="F76" s="87" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G76" s="88"/>
       <c r="H76" s="89"/>
@@ -28614,13 +28630,13 @@
       <c r="O76" s="39"/>
       <c r="P76" s="39"/>
       <c r="Q76" s="87" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R76" s="88"/>
       <c r="S76" s="89"/>
       <c r="T76" s="39"/>
       <c r="U76" s="87" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="V76" s="88"/>
       <c r="W76" s="89"/>
@@ -28665,7 +28681,7 @@
       <c r="X77" s="44"/>
       <c r="Y77" s="39"/>
       <c r="Z77" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA77" s="88"/>
       <c r="AB77" s="88"/>
@@ -28719,7 +28735,7 @@
     <row r="79" spans="1:36">
       <c r="A79" s="39"/>
       <c r="B79" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C79" s="88"/>
       <c r="D79" s="88"/>
@@ -28733,7 +28749,7 @@
       <c r="L79" s="89"/>
       <c r="M79" s="39"/>
       <c r="N79" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O79" s="88"/>
       <c r="P79" s="88"/>
@@ -28817,8 +28833,8 @@
   </sheetPr>
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28828,7 +28844,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="38.25" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -28906,15 +28922,17 @@
       </c>
       <c r="AG2" s="108"/>
     </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="103"/>
+    <row r="3" spans="1:33" ht="21" customHeight="1">
+      <c r="A3" s="103" t="s">
+        <v>20</v>
+      </c>
       <c r="B3" s="104"/>
       <c r="C3" s="104"/>
       <c r="D3" s="104"/>
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
       <c r="G3" s="103" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H3" s="104"/>
       <c r="I3" s="104"/>
@@ -28939,11 +28957,11 @@
       <c r="AB3" s="104"/>
       <c r="AC3" s="105"/>
       <c r="AD3" s="103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="105"/>
       <c r="AF3" s="103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="105"/>
     </row>
@@ -29130,7 +29148,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -29139,7 +29157,7 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="8"/>
@@ -29421,7 +29439,7 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O17" s="58"/>
       <c r="P17" s="8"/>
@@ -30075,7 +30093,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -30260,7 +30278,7 @@
   <sheetData>
     <row r="1" spans="1:33" ht="36.75" customHeight="1">
       <c r="A1" s="83" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -30346,7 +30364,7 @@
       <c r="E3" s="104"/>
       <c r="F3" s="105"/>
       <c r="G3" s="103" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H3" s="104"/>
       <c r="I3" s="104"/>
@@ -30371,17 +30389,17 @@
       <c r="AB3" s="104"/>
       <c r="AC3" s="105"/>
       <c r="AD3" s="103" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE3" s="105"/>
       <c r="AF3" s="103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" s="105"/>
     </row>
     <row r="4" spans="1:33" ht="25.5">
       <c r="J4" s="55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K4" s="38"/>
       <c r="L4" s="38"/>
@@ -30412,7 +30430,7 @@
     <row r="6" spans="1:33">
       <c r="J6" s="39"/>
       <c r="K6" s="87" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="88"/>
       <c r="M6" s="88"/>
@@ -30514,7 +30532,7 @@
       <c r="K13" s="40"/>
       <c r="L13" s="39"/>
       <c r="M13" s="70" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="N13" s="39"/>
       <c r="O13" s="39"/>
@@ -30544,7 +30562,7 @@
       <c r="K15" s="40"/>
       <c r="L15" s="39"/>
       <c r="M15" s="70" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N15" s="39"/>
       <c r="O15" s="39"/>
@@ -30604,7 +30622,7 @@
       <c r="M19" s="39"/>
       <c r="N19" s="39"/>
       <c r="O19" s="113" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P19" s="112"/>
       <c r="Q19" s="112"/>
@@ -30644,7 +30662,7 @@
     <row r="22" spans="10:21">
       <c r="J22" s="39"/>
       <c r="K22" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L22" s="88"/>
       <c r="M22" s="88"/>
